--- a/dadosNotas.xlsx
+++ b/dadosNotas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T.S\Dropbox\Estatística\Bioestatística usando o R\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\petro\Dropbox\Estatistica\statsR\dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98223FFA-1E47-4AD2-BBCA-05A33D481BE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{714513FA-A4BD-44ED-A682-40A8E4E41121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3780" yWindow="285" windowWidth="14595" windowHeight="13395" xr2:uid="{2320F2BB-2CEB-4FFC-88A6-A53D77C6CA87}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2320F2BB-2CEB-4FFC-88A6-A53D77C6CA87}"/>
   </bookViews>
   <sheets>
     <sheet name="notas" sheetId="1" r:id="rId1"/>
@@ -34,18 +34,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>notas</t>
   </si>
   <si>
     <t>sexo</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>M</t>
   </si>
 </sst>
 </file>
@@ -84,12 +78,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -113,9 +104,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -153,7 +144,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -259,7 +250,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -401,7 +392,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -412,7 +403,7 @@
   <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -432,320 +423,320 @@
       <c r="A2" s="2">
         <v>63.1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>76.3</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>57.7</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>66.900000000000006</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>73.099999999999994</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>70.3</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>63.6</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>75.7</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>73.5</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>83</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>73</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>60.2</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>72.8</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>77</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <v>59.9</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+      <c r="A17" s="2">
         <v>66.3</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+      <c r="A18" s="2">
         <v>74.599999999999994</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+      <c r="A19" s="2">
         <v>51.9</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+      <c r="A20" s="2">
         <v>65.5</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+      <c r="A21" s="2">
         <v>63.2</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+      <c r="A22" s="2">
         <v>56.9</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>3</v>
+      <c r="B22" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+      <c r="A23" s="2">
         <v>66.900000000000006</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>3</v>
+      <c r="B23" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
+      <c r="A24" s="2">
         <v>57.3</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>3</v>
+      <c r="B24" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
+      <c r="A25" s="2">
         <v>54.3</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>3</v>
+      <c r="B25" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
+      <c r="A26" s="2">
         <v>46.3</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>3</v>
+      <c r="B26" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
+      <c r="A27" s="2">
         <v>56.1</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>3</v>
+      <c r="B27" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
+      <c r="A28" s="2">
         <v>76.5</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>3</v>
+      <c r="B28" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
+      <c r="A29" s="2">
         <v>65.900000000000006</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>3</v>
+      <c r="B29" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
+      <c r="A30" s="2">
         <v>61.5</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>3</v>
+      <c r="B30" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
+      <c r="A31" s="2">
         <v>58.6</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>3</v>
+      <c r="B31" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
+      <c r="A32" s="2">
         <v>52.9</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>3</v>
+      <c r="B32" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
+      <c r="A33" s="2">
         <v>54.3</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>3</v>
+      <c r="B33" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
+      <c r="A34" s="2">
         <v>72.900000000000006</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>3</v>
+      <c r="B34" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
+      <c r="A35" s="2">
         <v>66.3</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>3</v>
+      <c r="B35" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
+      <c r="A36" s="2">
         <v>51.3</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>3</v>
+      <c r="B36" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
+      <c r="A37" s="2">
         <v>62.5</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>3</v>
+      <c r="B37" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
+      <c r="A38" s="2">
         <v>54.2</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>3</v>
+      <c r="B38" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
+      <c r="A39" s="2">
         <v>62.7</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>3</v>
+      <c r="B39" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
+      <c r="A40" s="2">
         <v>59.9</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>3</v>
+      <c r="B40" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
+      <c r="A41" s="2">
         <v>60</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>3</v>
+      <c r="B41" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
